--- a/meta/program/BlancoConstantsTask.xlsx
+++ b/meta/program/BlancoConstantsTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoConstants/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E54ACF60-CCCC-C84D-AD5E-0390DAD43CDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F543B08-4012-874D-A6F0-E0676AF84506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,14 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -213,12 +215,45 @@
   <si>
     <t>自動生成するソースファイルの文字エンコーディングを指定します。</t>
   </si>
+  <si>
+    <t>targetStyle</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>blanco</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出力先フォルダの書式を指定します。&lt;br&gt;
+blanco: [targetdir]/main&lt;br&gt;
+maven: [targetdir]/main/java&lt;br&gt;
+free: [targetdir](targetdirが無指定の場合はblanco/main)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lineSeparator</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -259,6 +294,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -627,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,6 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -756,7 +798,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1155,13 +1201,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1206,10 +1254,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1219,10 +1267,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1233,10 +1281,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1247,10 +1295,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1282,38 +1330,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:9" ht="30.5" customHeight="1">
       <c r="A14" s="44">
@@ -1329,15 +1377,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:9" ht="28.25" customHeight="1">
       <c r="A15" s="49">
+        <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="50" t="s">
@@ -1350,15 +1399,16 @@
       <c r="E15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="26.5" customHeight="1">
       <c r="A16" s="49">
+        <f t="shared" ref="A16:A19" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="50" t="s">
@@ -1371,15 +1421,16 @@
       <c r="E16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="22">
+      <c r="A17" s="49">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -1397,24 +1448,46 @@
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="42"/>
+    <row r="18" spans="1:9" ht="90">
+      <c r="A18" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="42"/>
+      <c r="A19" s="49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>36</v>
+      </c>
       <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>42</v>
+      </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
@@ -1486,23 +1559,40 @@
       <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F12:I13"/>
@@ -1511,17 +1601,22 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F42">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F44" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D26">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C26">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C28" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>
@@ -1534,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
